--- a/examples/sources/data/unsolved/scheduled/2019-03-13.xlsx
+++ b/examples/sources/data/unsolved/scheduled/2019-03-13.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danilo Reitano\Documents\GitHub\optaplanner-time\examples\sources\data\unsolved\scheduled\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB57577-ED91-407D-84E8-2275C260A3C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audiencias" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="165">
   <si>
     <t>Id</t>
   </si>
@@ -514,11 +520,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,6 +588,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -628,7 +642,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -660,9 +674,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -694,6 +726,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -869,14 +919,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K140"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:XFD76"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -911,7 +963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>105637</v>
       </c>
@@ -946,7 +998,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>105638</v>
       </c>
@@ -981,7 +1033,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>105639</v>
       </c>
@@ -1016,7 +1068,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>105640</v>
       </c>
@@ -1051,7 +1103,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>105641</v>
       </c>
@@ -1086,7 +1138,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>105642</v>
       </c>
@@ -1121,7 +1173,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>105643</v>
       </c>
@@ -1156,7 +1208,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>105644</v>
       </c>
@@ -1191,7 +1243,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>105645</v>
       </c>
@@ -1226,7 +1278,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>105646</v>
       </c>
@@ -1261,7 +1313,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>105647</v>
       </c>
@@ -1296,7 +1348,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>105648</v>
       </c>
@@ -1331,7 +1383,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>105649</v>
       </c>
@@ -1366,7 +1418,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>105650</v>
       </c>
@@ -1401,7 +1453,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>105651</v>
       </c>
@@ -1436,7 +1488,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>105653</v>
       </c>
@@ -1471,7 +1523,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>105654</v>
       </c>
@@ -1506,7 +1558,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>105655</v>
       </c>
@@ -1541,7 +1593,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>105656</v>
       </c>
@@ -1576,7 +1628,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>105657</v>
       </c>
@@ -1611,7 +1663,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>105658</v>
       </c>
@@ -1646,7 +1698,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>105659</v>
       </c>
@@ -1681,7 +1733,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>105660</v>
       </c>
@@ -1716,7 +1768,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>105661</v>
       </c>
@@ -1751,7 +1803,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>105662</v>
       </c>
@@ -1786,7 +1838,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>105663</v>
       </c>
@@ -1821,7 +1873,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>105664</v>
       </c>
@@ -1856,7 +1908,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>105665</v>
       </c>
@@ -1891,7 +1943,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>105666</v>
       </c>
@@ -1926,7 +1978,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>105668</v>
       </c>
@@ -1961,7 +2013,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>105669</v>
       </c>
@@ -1996,7 +2048,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>105670</v>
       </c>
@@ -2031,7 +2083,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>105675</v>
       </c>
@@ -2066,7 +2118,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>105676</v>
       </c>
@@ -2101,7 +2153,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>105677</v>
       </c>
@@ -2136,7 +2188,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>105678</v>
       </c>
@@ -2171,7 +2223,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>105680</v>
       </c>
@@ -2206,7 +2258,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>105681</v>
       </c>
@@ -2241,7 +2293,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>105682</v>
       </c>
@@ -2276,7 +2328,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>105683</v>
       </c>
@@ -2311,7 +2363,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>105685</v>
       </c>
@@ -2346,7 +2398,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>105687</v>
       </c>
@@ -2381,7 +2433,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>105689</v>
       </c>
@@ -2416,7 +2468,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>105690</v>
       </c>
@@ -2451,7 +2503,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>105691</v>
       </c>
@@ -2486,7 +2538,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>105692</v>
       </c>
@@ -2521,7 +2573,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>105693</v>
       </c>
@@ -2556,7 +2608,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>105694</v>
       </c>
@@ -2591,7 +2643,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>105695</v>
       </c>
@@ -2626,7 +2678,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>105696</v>
       </c>
@@ -2661,7 +2713,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>105697</v>
       </c>
@@ -2696,7 +2748,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>105698</v>
       </c>
@@ -2731,7 +2783,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>105699</v>
       </c>
@@ -2766,7 +2818,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>105701</v>
       </c>
@@ -2801,7 +2853,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>105702</v>
       </c>
@@ -2836,7 +2888,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>105703</v>
       </c>
@@ -2871,7 +2923,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>105704</v>
       </c>
@@ -2906,7 +2958,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>105705</v>
       </c>
@@ -2941,7 +2993,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>105706</v>
       </c>
@@ -2976,7 +3028,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>105707</v>
       </c>
@@ -3011,7 +3063,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>105708</v>
       </c>
@@ -3046,7 +3098,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>105709</v>
       </c>
@@ -3081,7 +3133,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>105711</v>
       </c>
@@ -3116,7 +3168,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>105712</v>
       </c>
@@ -3151,7 +3203,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>105713</v>
       </c>
@@ -3186,7 +3238,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>105714</v>
       </c>
@@ -3221,7 +3273,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>105715</v>
       </c>
@@ -3256,7 +3308,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>105716</v>
       </c>
@@ -3291,7 +3343,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>105717</v>
       </c>
@@ -3326,7 +3378,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>105718</v>
       </c>
@@ -3361,7 +3413,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>105719</v>
       </c>
@@ -3396,7 +3448,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>105720</v>
       </c>
@@ -3431,7 +3483,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>105721</v>
       </c>
@@ -3466,7 +3518,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>105722</v>
       </c>
@@ -3501,62 +3553,62 @@
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>105723</v>
+        <v>105724</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C76">
-        <v>1063</v>
+        <v>820</v>
       </c>
       <c r="D76">
-        <v>815</v>
+        <v>463</v>
       </c>
       <c r="E76">
-        <v>804</v>
+        <v>392</v>
       </c>
       <c r="F76" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="G76">
-        <v>824</v>
+        <v>698</v>
       </c>
       <c r="H76" s="2">
         <v>43537</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>872</v>
       </c>
       <c r="J76" s="2">
-        <v>43546</v>
+        <v>43550</v>
       </c>
       <c r="K76" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>105724</v>
+        <v>105725</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C77">
-        <v>820</v>
+        <v>842</v>
       </c>
       <c r="D77">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="E77">
-        <v>392</v>
+        <v>323</v>
       </c>
       <c r="F77" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G77">
-        <v>698</v>
+        <v>453</v>
       </c>
       <c r="H77" s="2">
         <v>43537</v>
@@ -3565,470 +3617,470 @@
         <v>872</v>
       </c>
       <c r="J77" s="2">
-        <v>43550</v>
+        <v>43587</v>
       </c>
       <c r="K77" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>105725</v>
+        <v>105726</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C78">
+        <v>827</v>
+      </c>
+      <c r="D78">
+        <v>821</v>
+      </c>
+      <c r="E78">
+        <v>691</v>
+      </c>
+      <c r="F78" t="s">
+        <v>50</v>
+      </c>
+      <c r="G78">
+        <v>1179</v>
+      </c>
+      <c r="H78" s="2">
+        <v>43537</v>
+      </c>
+      <c r="I78">
+        <v>503</v>
+      </c>
+      <c r="J78" s="2">
+        <v>43543</v>
+      </c>
+      <c r="K78" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>105729</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79">
         <v>842</v>
       </c>
-      <c r="D78">
-        <v>439</v>
-      </c>
-      <c r="E78">
+      <c r="D79">
+        <v>430</v>
+      </c>
+      <c r="E79">
+        <v>392</v>
+      </c>
+      <c r="F79" t="s">
+        <v>66</v>
+      </c>
+      <c r="G79">
+        <v>384</v>
+      </c>
+      <c r="H79" s="2">
+        <v>43537</v>
+      </c>
+      <c r="I79">
+        <v>314</v>
+      </c>
+      <c r="J79" s="2">
+        <v>43564</v>
+      </c>
+      <c r="K79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>105730</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80">
+        <v>827</v>
+      </c>
+      <c r="D80">
+        <v>820</v>
+      </c>
+      <c r="E80">
+        <v>795</v>
+      </c>
+      <c r="F80" t="s">
+        <v>39</v>
+      </c>
+      <c r="G80">
+        <v>843</v>
+      </c>
+      <c r="H80" s="2">
+        <v>43537</v>
+      </c>
+      <c r="I80">
+        <v>501</v>
+      </c>
+      <c r="J80" s="2">
+        <v>43558</v>
+      </c>
+      <c r="K80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>105732</v>
+      </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81">
+        <v>842</v>
+      </c>
+      <c r="D81">
+        <v>430</v>
+      </c>
+      <c r="E81">
+        <v>392</v>
+      </c>
+      <c r="F81" t="s">
+        <v>66</v>
+      </c>
+      <c r="G81">
+        <v>384</v>
+      </c>
+      <c r="H81" s="2">
+        <v>43537</v>
+      </c>
+      <c r="I81">
+        <v>314</v>
+      </c>
+      <c r="J81" s="2">
+        <v>43564</v>
+      </c>
+      <c r="K81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>105733</v>
+      </c>
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82">
+        <v>450</v>
+      </c>
+      <c r="D82">
+        <v>577</v>
+      </c>
+      <c r="E82">
+        <v>689</v>
+      </c>
+      <c r="F82" t="s">
+        <v>60</v>
+      </c>
+      <c r="G82">
+        <v>1520</v>
+      </c>
+      <c r="H82" s="2">
+        <v>43537</v>
+      </c>
+      <c r="I82">
+        <v>513</v>
+      </c>
+      <c r="J82" s="2">
+        <v>43538</v>
+      </c>
+      <c r="K82" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>105734</v>
+      </c>
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83">
+        <v>842</v>
+      </c>
+      <c r="D83">
+        <v>430</v>
+      </c>
+      <c r="E83">
+        <v>392</v>
+      </c>
+      <c r="F83" t="s">
+        <v>66</v>
+      </c>
+      <c r="G83">
+        <v>384</v>
+      </c>
+      <c r="H83" s="2">
+        <v>43537</v>
+      </c>
+      <c r="I83">
+        <v>314</v>
+      </c>
+      <c r="J83" s="2">
+        <v>43564</v>
+      </c>
+      <c r="K83" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>105736</v>
+      </c>
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84">
+        <v>848</v>
+      </c>
+      <c r="D84">
+        <v>661</v>
+      </c>
+      <c r="E84">
         <v>323</v>
       </c>
-      <c r="F78" t="s">
-        <v>71</v>
-      </c>
-      <c r="G78">
-        <v>453</v>
-      </c>
-      <c r="H78" s="2">
-        <v>43537</v>
-      </c>
-      <c r="I78">
-        <v>872</v>
-      </c>
-      <c r="J78" s="2">
-        <v>43587</v>
-      </c>
-      <c r="K78" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79">
-        <v>105726</v>
-      </c>
-      <c r="B79" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79">
-        <v>827</v>
-      </c>
-      <c r="D79">
-        <v>821</v>
-      </c>
-      <c r="E79">
-        <v>691</v>
-      </c>
-      <c r="F79" t="s">
-        <v>50</v>
-      </c>
-      <c r="G79">
-        <v>1179</v>
-      </c>
-      <c r="H79" s="2">
-        <v>43537</v>
-      </c>
-      <c r="I79">
-        <v>503</v>
-      </c>
-      <c r="J79" s="2">
-        <v>43543</v>
-      </c>
-      <c r="K79" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80">
-        <v>105729</v>
-      </c>
-      <c r="B80" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80">
-        <v>842</v>
-      </c>
-      <c r="D80">
-        <v>430</v>
-      </c>
-      <c r="E80">
-        <v>392</v>
-      </c>
-      <c r="F80" t="s">
-        <v>66</v>
-      </c>
-      <c r="G80">
-        <v>384</v>
-      </c>
-      <c r="H80" s="2">
-        <v>43537</v>
-      </c>
-      <c r="I80">
-        <v>314</v>
-      </c>
-      <c r="J80" s="2">
-        <v>43564</v>
-      </c>
-      <c r="K80" t="s">
+      <c r="F84" t="s">
+        <v>72</v>
+      </c>
+      <c r="G84">
+        <v>1316</v>
+      </c>
+      <c r="H84" s="2">
+        <v>43537</v>
+      </c>
+      <c r="I84">
+        <v>455</v>
+      </c>
+      <c r="J84" s="2">
+        <v>43551</v>
+      </c>
+      <c r="K84" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
-      <c r="A81">
-        <v>105730</v>
-      </c>
-      <c r="B81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81">
-        <v>827</v>
-      </c>
-      <c r="D81">
-        <v>820</v>
-      </c>
-      <c r="E81">
-        <v>795</v>
-      </c>
-      <c r="F81" t="s">
-        <v>39</v>
-      </c>
-      <c r="G81">
-        <v>843</v>
-      </c>
-      <c r="H81" s="2">
-        <v>43537</v>
-      </c>
-      <c r="I81">
-        <v>501</v>
-      </c>
-      <c r="J81" s="2">
-        <v>43558</v>
-      </c>
-      <c r="K81" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82">
-        <v>105732</v>
-      </c>
-      <c r="B82" t="s">
-        <v>18</v>
-      </c>
-      <c r="C82">
-        <v>842</v>
-      </c>
-      <c r="D82">
-        <v>430</v>
-      </c>
-      <c r="E82">
-        <v>392</v>
-      </c>
-      <c r="F82" t="s">
-        <v>66</v>
-      </c>
-      <c r="G82">
-        <v>384</v>
-      </c>
-      <c r="H82" s="2">
-        <v>43537</v>
-      </c>
-      <c r="I82">
-        <v>314</v>
-      </c>
-      <c r="J82" s="2">
-        <v>43564</v>
-      </c>
-      <c r="K82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83">
-        <v>105733</v>
-      </c>
-      <c r="B83" t="s">
-        <v>14</v>
-      </c>
-      <c r="C83">
-        <v>450</v>
-      </c>
-      <c r="D83">
-        <v>577</v>
-      </c>
-      <c r="E83">
-        <v>689</v>
-      </c>
-      <c r="F83" t="s">
-        <v>60</v>
-      </c>
-      <c r="G83">
-        <v>1520</v>
-      </c>
-      <c r="H83" s="2">
-        <v>43537</v>
-      </c>
-      <c r="I83">
-        <v>513</v>
-      </c>
-      <c r="J83" s="2">
-        <v>43538</v>
-      </c>
-      <c r="K83" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84">
-        <v>105734</v>
-      </c>
-      <c r="B84" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84">
-        <v>842</v>
-      </c>
-      <c r="D84">
-        <v>430</v>
-      </c>
-      <c r="E84">
-        <v>392</v>
-      </c>
-      <c r="F84" t="s">
-        <v>66</v>
-      </c>
-      <c r="G84">
-        <v>384</v>
-      </c>
-      <c r="H84" s="2">
-        <v>43537</v>
-      </c>
-      <c r="I84">
-        <v>314</v>
-      </c>
-      <c r="J84" s="2">
-        <v>43564</v>
-      </c>
-      <c r="K84" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>105736</v>
+        <v>105740</v>
       </c>
       <c r="B85" t="s">
         <v>14</v>
       </c>
       <c r="C85">
-        <v>848</v>
+        <v>821</v>
       </c>
       <c r="D85">
-        <v>661</v>
+        <v>3</v>
       </c>
       <c r="E85">
         <v>323</v>
       </c>
       <c r="F85" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G85">
-        <v>1316</v>
+        <v>335</v>
       </c>
       <c r="H85" s="2">
         <v>43537</v>
       </c>
       <c r="I85">
-        <v>455</v>
+        <v>511</v>
       </c>
       <c r="J85" s="2">
-        <v>43551</v>
+        <v>43591</v>
       </c>
       <c r="K85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>105740</v>
+        <v>105741</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C86">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E86">
-        <v>323</v>
+        <v>399</v>
       </c>
       <c r="F86" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G86">
-        <v>335</v>
+        <v>1210</v>
       </c>
       <c r="H86" s="2">
         <v>43537</v>
       </c>
       <c r="I86">
-        <v>511</v>
+        <v>271</v>
       </c>
       <c r="J86" s="2">
-        <v>43591</v>
+        <v>43544</v>
       </c>
       <c r="K86" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>105741</v>
+        <v>105742</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C87">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D87">
         <v>463</v>
       </c>
       <c r="E87">
-        <v>399</v>
+        <v>323</v>
       </c>
       <c r="F87" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G87">
-        <v>1210</v>
+        <v>700</v>
       </c>
       <c r="H87" s="2">
         <v>43537</v>
       </c>
       <c r="I87">
-        <v>271</v>
+        <v>515</v>
       </c>
       <c r="J87" s="2">
-        <v>43544</v>
+        <v>43550</v>
       </c>
       <c r="K87" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>105742</v>
+        <v>105743</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C88">
-        <v>820</v>
+        <v>827</v>
       </c>
       <c r="D88">
-        <v>463</v>
+        <v>817</v>
       </c>
       <c r="E88">
-        <v>323</v>
+        <v>803</v>
       </c>
       <c r="F88" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="G88">
-        <v>700</v>
+        <v>540</v>
       </c>
       <c r="H88" s="2">
         <v>43537</v>
       </c>
       <c r="I88">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="J88" s="2">
-        <v>43550</v>
+        <v>43587</v>
       </c>
       <c r="K88" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>105743</v>
+        <v>105744</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C89">
-        <v>827</v>
+        <v>842</v>
       </c>
       <c r="D89">
-        <v>817</v>
+        <v>440</v>
       </c>
       <c r="E89">
-        <v>803</v>
+        <v>410</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="G89">
-        <v>540</v>
+        <v>731</v>
       </c>
       <c r="H89" s="2">
         <v>43537</v>
       </c>
       <c r="I89">
-        <v>502</v>
+        <v>314</v>
       </c>
       <c r="J89" s="2">
-        <v>43587</v>
+        <v>43577</v>
       </c>
       <c r="K89" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>105744</v>
+        <v>105745</v>
       </c>
       <c r="B90" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C90">
-        <v>842</v>
+        <v>823</v>
       </c>
       <c r="D90">
-        <v>440</v>
+        <v>324</v>
       </c>
       <c r="E90">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="F90" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G90">
-        <v>731</v>
+        <v>530</v>
       </c>
       <c r="H90" s="2">
         <v>43537</v>
       </c>
       <c r="I90">
-        <v>314</v>
+        <v>511</v>
       </c>
       <c r="J90" s="2">
-        <v>43577</v>
+        <v>43558</v>
       </c>
       <c r="K90" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>105745</v>
+        <v>105746</v>
       </c>
       <c r="B91" t="s">
         <v>14</v>
@@ -4037,774 +4089,774 @@
         <v>823</v>
       </c>
       <c r="D91">
-        <v>324</v>
+        <v>1221</v>
       </c>
       <c r="E91">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="F91" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G91">
-        <v>530</v>
+        <v>703</v>
       </c>
       <c r="H91" s="2">
         <v>43537</v>
       </c>
       <c r="I91">
-        <v>511</v>
+        <v>271</v>
       </c>
       <c r="J91" s="2">
-        <v>43558</v>
+        <v>43543</v>
       </c>
       <c r="K91" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>105746</v>
+        <v>105748</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C92">
         <v>823</v>
       </c>
       <c r="D92">
-        <v>1221</v>
+        <v>416</v>
       </c>
       <c r="E92">
-        <v>323</v>
+        <v>395</v>
       </c>
       <c r="F92" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G92">
-        <v>703</v>
+        <v>515</v>
       </c>
       <c r="H92" s="2">
         <v>43537</v>
       </c>
       <c r="I92">
-        <v>271</v>
+        <v>513</v>
       </c>
       <c r="J92" s="2">
-        <v>43543</v>
+        <v>43593</v>
       </c>
       <c r="K92" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>105748</v>
+        <v>105749</v>
       </c>
       <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93">
+        <v>848</v>
+      </c>
+      <c r="D93">
+        <v>428</v>
+      </c>
+      <c r="E93">
+        <v>410</v>
+      </c>
+      <c r="F93" t="s">
+        <v>76</v>
+      </c>
+      <c r="G93">
+        <v>383</v>
+      </c>
+      <c r="H93" s="2">
+        <v>43537</v>
+      </c>
+      <c r="I93">
+        <v>314</v>
+      </c>
+      <c r="J93" s="2">
+        <v>43546</v>
+      </c>
+      <c r="K93" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>105750</v>
+      </c>
+      <c r="B94" t="s">
         <v>12</v>
       </c>
-      <c r="C93">
-        <v>823</v>
-      </c>
-      <c r="D93">
-        <v>416</v>
-      </c>
-      <c r="E93">
-        <v>395</v>
-      </c>
-      <c r="F93" t="s">
-        <v>68</v>
-      </c>
-      <c r="G93">
-        <v>515</v>
-      </c>
-      <c r="H93" s="2">
-        <v>43537</v>
-      </c>
-      <c r="I93">
-        <v>513</v>
-      </c>
-      <c r="J93" s="2">
-        <v>43593</v>
-      </c>
-      <c r="K93" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94">
-        <v>105749</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="C94">
+        <v>820</v>
+      </c>
+      <c r="D94">
+        <v>346</v>
+      </c>
+      <c r="E94">
+        <v>396</v>
+      </c>
+      <c r="F94" t="s">
+        <v>79</v>
+      </c>
+      <c r="G94">
+        <v>708</v>
+      </c>
+      <c r="H94" s="2">
+        <v>43537</v>
+      </c>
+      <c r="I94">
+        <v>270</v>
+      </c>
+      <c r="J94" s="2">
+        <v>43549</v>
+      </c>
+      <c r="K94" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>105751</v>
+      </c>
+      <c r="B95" t="s">
         <v>14</v>
       </c>
-      <c r="C94">
+      <c r="C95">
         <v>848</v>
       </c>
-      <c r="D94">
-        <v>428</v>
-      </c>
-      <c r="E94">
-        <v>410</v>
-      </c>
-      <c r="F94" t="s">
-        <v>76</v>
-      </c>
-      <c r="G94">
-        <v>383</v>
-      </c>
-      <c r="H94" s="2">
-        <v>43537</v>
-      </c>
-      <c r="I94">
+      <c r="D95">
+        <v>424</v>
+      </c>
+      <c r="E95">
+        <v>689</v>
+      </c>
+      <c r="F95" t="s">
+        <v>60</v>
+      </c>
+      <c r="G95">
+        <v>1566</v>
+      </c>
+      <c r="H95" s="2">
+        <v>43537</v>
+      </c>
+      <c r="I95">
         <v>314</v>
       </c>
-      <c r="J94" s="2">
-        <v>43546</v>
-      </c>
-      <c r="K94" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95">
-        <v>105750</v>
-      </c>
-      <c r="B95" t="s">
-        <v>12</v>
-      </c>
-      <c r="C95">
-        <v>820</v>
-      </c>
-      <c r="D95">
-        <v>346</v>
-      </c>
-      <c r="E95">
-        <v>396</v>
-      </c>
-      <c r="F95" t="s">
-        <v>79</v>
-      </c>
-      <c r="G95">
-        <v>708</v>
-      </c>
-      <c r="H95" s="2">
-        <v>43537</v>
-      </c>
-      <c r="I95">
-        <v>270</v>
-      </c>
       <c r="J95" s="2">
-        <v>43549</v>
+        <v>43545</v>
       </c>
       <c r="K95" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>105751</v>
+        <v>105752</v>
       </c>
       <c r="B96" t="s">
         <v>14</v>
       </c>
       <c r="C96">
-        <v>848</v>
+        <v>820</v>
       </c>
       <c r="D96">
-        <v>424</v>
+        <v>324</v>
       </c>
       <c r="E96">
-        <v>689</v>
+        <v>553</v>
       </c>
       <c r="F96" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G96">
-        <v>1566</v>
+        <v>732</v>
       </c>
       <c r="H96" s="2">
         <v>43537</v>
       </c>
       <c r="I96">
-        <v>314</v>
+        <v>511</v>
       </c>
       <c r="J96" s="2">
-        <v>43545</v>
+        <v>43559</v>
       </c>
       <c r="K96" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>105752</v>
+        <v>105753</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C97">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="D97">
-        <v>324</v>
+        <v>463</v>
       </c>
       <c r="E97">
-        <v>553</v>
+        <v>323</v>
       </c>
       <c r="F97" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="G97">
-        <v>732</v>
+        <v>387</v>
       </c>
       <c r="H97" s="2">
         <v>43537</v>
       </c>
       <c r="I97">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J97" s="2">
-        <v>43559</v>
+        <v>43543</v>
       </c>
       <c r="K97" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>105753</v>
+        <v>105754</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C98">
-        <v>823</v>
+        <v>842</v>
       </c>
       <c r="D98">
-        <v>463</v>
+        <v>431</v>
       </c>
       <c r="E98">
         <v>323</v>
       </c>
       <c r="F98" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G98">
-        <v>387</v>
+        <v>1566</v>
       </c>
       <c r="H98" s="2">
         <v>43537</v>
       </c>
       <c r="I98">
-        <v>513</v>
+        <v>318</v>
       </c>
       <c r="J98" s="2">
-        <v>43543</v>
+        <v>43544</v>
       </c>
       <c r="K98" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>105754</v>
+        <v>105755</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C99">
-        <v>842</v>
+        <v>816</v>
       </c>
       <c r="D99">
-        <v>431</v>
+        <v>462</v>
       </c>
       <c r="E99">
         <v>323</v>
       </c>
       <c r="F99" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G99">
-        <v>1566</v>
+        <v>530</v>
       </c>
       <c r="H99" s="2">
         <v>43537</v>
       </c>
       <c r="I99">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="J99" s="2">
-        <v>43544</v>
+        <v>43539</v>
       </c>
       <c r="K99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>105755</v>
+        <v>105756</v>
       </c>
       <c r="B100" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C100">
         <v>816</v>
       </c>
       <c r="D100">
-        <v>462</v>
+        <v>867</v>
       </c>
       <c r="E100">
         <v>323</v>
       </c>
       <c r="F100" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G100">
-        <v>530</v>
+        <v>849</v>
       </c>
       <c r="H100" s="2">
         <v>43537</v>
       </c>
       <c r="I100">
-        <v>311</v>
+        <v>875</v>
       </c>
       <c r="J100" s="2">
-        <v>43539</v>
+        <v>43544</v>
       </c>
       <c r="K100" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>105756</v>
+        <v>105757</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C101">
-        <v>816</v>
+        <v>848</v>
       </c>
       <c r="D101">
-        <v>867</v>
+        <v>813</v>
       </c>
       <c r="E101">
         <v>323</v>
       </c>
       <c r="F101" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G101">
-        <v>849</v>
+        <v>825</v>
       </c>
       <c r="H101" s="2">
         <v>43537</v>
       </c>
       <c r="I101">
-        <v>875</v>
+        <v>499</v>
       </c>
       <c r="J101" s="2">
-        <v>43544</v>
+        <v>43549</v>
       </c>
       <c r="K101" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>105757</v>
+        <v>105758</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C102">
-        <v>848</v>
+        <v>820</v>
       </c>
       <c r="D102">
-        <v>813</v>
+        <v>654</v>
       </c>
       <c r="E102">
         <v>323</v>
       </c>
       <c r="F102" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G102">
-        <v>825</v>
+        <v>1316</v>
       </c>
       <c r="H102" s="2">
         <v>43537</v>
       </c>
       <c r="I102">
-        <v>499</v>
+        <v>935</v>
       </c>
       <c r="J102" s="2">
-        <v>43549</v>
+        <v>43544</v>
       </c>
       <c r="K102" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>105758</v>
+        <v>105759</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C103">
-        <v>820</v>
+        <v>842</v>
       </c>
       <c r="D103">
-        <v>654</v>
+        <v>431</v>
       </c>
       <c r="E103">
         <v>323</v>
       </c>
       <c r="F103" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G103">
-        <v>1316</v>
+        <v>1566</v>
       </c>
       <c r="H103" s="2">
         <v>43537</v>
       </c>
       <c r="I103">
-        <v>935</v>
+        <v>318</v>
       </c>
       <c r="J103" s="2">
         <v>43544</v>
       </c>
       <c r="K103" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>105759</v>
+        <v>105760</v>
       </c>
       <c r="B104" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C104">
-        <v>842</v>
+        <v>815</v>
       </c>
       <c r="D104">
-        <v>431</v>
+        <v>819</v>
       </c>
       <c r="E104">
         <v>323</v>
       </c>
       <c r="F104" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G104">
-        <v>1566</v>
+        <v>842</v>
       </c>
       <c r="H104" s="2">
         <v>43537</v>
       </c>
       <c r="I104">
-        <v>318</v>
+        <v>500</v>
       </c>
       <c r="J104" s="2">
-        <v>43544</v>
+        <v>43546</v>
       </c>
       <c r="K104" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>105760</v>
+        <v>105761</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C105">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="D105">
-        <v>819</v>
+        <v>463</v>
       </c>
       <c r="E105">
-        <v>323</v>
+        <v>393</v>
       </c>
       <c r="F105" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G105">
-        <v>842</v>
+        <v>872</v>
       </c>
       <c r="H105" s="2">
         <v>43537</v>
       </c>
       <c r="I105">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="J105" s="2">
-        <v>43546</v>
+        <v>43549</v>
       </c>
       <c r="K105" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>105761</v>
+        <v>105762</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C106">
-        <v>820</v>
+        <v>378</v>
       </c>
       <c r="D106">
         <v>463</v>
       </c>
       <c r="E106">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="F106" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="G106">
-        <v>872</v>
+        <v>494</v>
       </c>
       <c r="H106" s="2">
         <v>43537</v>
       </c>
       <c r="I106">
-        <v>513</v>
+        <v>273</v>
       </c>
       <c r="J106" s="2">
-        <v>43549</v>
+        <v>43591</v>
       </c>
       <c r="K106" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>105762</v>
+        <v>105763</v>
       </c>
       <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107">
+        <v>820</v>
+      </c>
+      <c r="D107">
+        <v>422</v>
+      </c>
+      <c r="E107">
+        <v>575</v>
+      </c>
+      <c r="F107" t="s">
+        <v>32</v>
+      </c>
+      <c r="G107">
+        <v>506</v>
+      </c>
+      <c r="H107" s="2">
+        <v>43537</v>
+      </c>
+      <c r="I107">
+        <v>516</v>
+      </c>
+      <c r="J107" s="2">
+        <v>43545</v>
+      </c>
+      <c r="K107" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>105764</v>
+      </c>
+      <c r="B108" t="s">
         <v>11</v>
-      </c>
-      <c r="C107">
-        <v>378</v>
-      </c>
-      <c r="D107">
-        <v>463</v>
-      </c>
-      <c r="E107">
-        <v>398</v>
-      </c>
-      <c r="F107" t="s">
-        <v>59</v>
-      </c>
-      <c r="G107">
-        <v>494</v>
-      </c>
-      <c r="H107" s="2">
-        <v>43537</v>
-      </c>
-      <c r="I107">
-        <v>273</v>
-      </c>
-      <c r="J107" s="2">
-        <v>43591</v>
-      </c>
-      <c r="K107" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108">
-        <v>105763</v>
-      </c>
-      <c r="B108" t="s">
-        <v>12</v>
       </c>
       <c r="C108">
         <v>820</v>
       </c>
       <c r="D108">
+        <v>462</v>
+      </c>
+      <c r="E108">
+        <v>361</v>
+      </c>
+      <c r="F108" t="s">
+        <v>88</v>
+      </c>
+      <c r="G108">
+        <v>378</v>
+      </c>
+      <c r="H108" s="2">
+        <v>43537</v>
+      </c>
+      <c r="I108">
+        <v>311</v>
+      </c>
+      <c r="J108" s="2">
+        <v>43539</v>
+      </c>
+      <c r="K108" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>105765</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109">
+        <v>376</v>
+      </c>
+      <c r="D109">
+        <v>416</v>
+      </c>
+      <c r="E109">
+        <v>398</v>
+      </c>
+      <c r="F109" t="s">
+        <v>59</v>
+      </c>
+      <c r="G109">
+        <v>494</v>
+      </c>
+      <c r="H109" s="2">
+        <v>43537</v>
+      </c>
+      <c r="I109">
+        <v>273</v>
+      </c>
+      <c r="J109" s="2">
+        <v>43558</v>
+      </c>
+      <c r="K109" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>105766</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110">
+        <v>823</v>
+      </c>
+      <c r="D110">
         <v>422</v>
       </c>
-      <c r="E108">
-        <v>575</v>
-      </c>
-      <c r="F108" t="s">
-        <v>32</v>
-      </c>
-      <c r="G108">
-        <v>506</v>
-      </c>
-      <c r="H108" s="2">
-        <v>43537</v>
-      </c>
-      <c r="I108">
-        <v>516</v>
-      </c>
-      <c r="J108" s="2">
-        <v>43545</v>
-      </c>
-      <c r="K108" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109">
-        <v>105764</v>
-      </c>
-      <c r="B109" t="s">
+      <c r="E110">
+        <v>396</v>
+      </c>
+      <c r="F110" t="s">
+        <v>79</v>
+      </c>
+      <c r="G110">
+        <v>621</v>
+      </c>
+      <c r="H110" s="2">
+        <v>43537</v>
+      </c>
+      <c r="I110">
+        <v>272</v>
+      </c>
+      <c r="J110" s="2">
+        <v>43556</v>
+      </c>
+      <c r="K110" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>105767</v>
+      </c>
+      <c r="B111" t="s">
         <v>11</v>
       </c>
-      <c r="C109">
-        <v>820</v>
-      </c>
-      <c r="D109">
-        <v>462</v>
-      </c>
-      <c r="E109">
-        <v>361</v>
-      </c>
-      <c r="F109" t="s">
-        <v>88</v>
-      </c>
-      <c r="G109">
-        <v>378</v>
-      </c>
-      <c r="H109" s="2">
-        <v>43537</v>
-      </c>
-      <c r="I109">
-        <v>311</v>
-      </c>
-      <c r="J109" s="2">
-        <v>43539</v>
-      </c>
-      <c r="K109" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110">
-        <v>105765</v>
-      </c>
-      <c r="B110" t="s">
-        <v>13</v>
-      </c>
-      <c r="C110">
-        <v>376</v>
-      </c>
-      <c r="D110">
+      <c r="C111">
+        <v>817</v>
+      </c>
+      <c r="D111">
+        <v>346</v>
+      </c>
+      <c r="E111">
+        <v>392</v>
+      </c>
+      <c r="F111" t="s">
+        <v>66</v>
+      </c>
+      <c r="G111">
+        <v>698</v>
+      </c>
+      <c r="H111" s="2">
+        <v>43537</v>
+      </c>
+      <c r="I111">
+        <v>270</v>
+      </c>
+      <c r="J111" s="2">
+        <v>43549</v>
+      </c>
+      <c r="K111" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>105768</v>
+      </c>
+      <c r="B112" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112">
+        <v>377</v>
+      </c>
+      <c r="D112">
         <v>416</v>
       </c>
-      <c r="E110">
-        <v>398</v>
-      </c>
-      <c r="F110" t="s">
-        <v>59</v>
-      </c>
-      <c r="G110">
+      <c r="E112">
+        <v>323</v>
+      </c>
+      <c r="F112" t="s">
+        <v>89</v>
+      </c>
+      <c r="G112">
         <v>494</v>
       </c>
-      <c r="H110" s="2">
-        <v>43537</v>
-      </c>
-      <c r="I110">
+      <c r="H112" s="2">
+        <v>43537</v>
+      </c>
+      <c r="I112">
         <v>273</v>
       </c>
-      <c r="J110" s="2">
-        <v>43558</v>
-      </c>
-      <c r="K110" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111">
-        <v>105766</v>
-      </c>
-      <c r="B111" t="s">
-        <v>12</v>
-      </c>
-      <c r="C111">
-        <v>823</v>
-      </c>
-      <c r="D111">
-        <v>422</v>
-      </c>
-      <c r="E111">
-        <v>396</v>
-      </c>
-      <c r="F111" t="s">
-        <v>79</v>
-      </c>
-      <c r="G111">
-        <v>621</v>
-      </c>
-      <c r="H111" s="2">
-        <v>43537</v>
-      </c>
-      <c r="I111">
-        <v>272</v>
-      </c>
-      <c r="J111" s="2">
-        <v>43556</v>
-      </c>
-      <c r="K111" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112">
-        <v>105767</v>
-      </c>
-      <c r="B112" t="s">
-        <v>11</v>
-      </c>
-      <c r="C112">
-        <v>817</v>
-      </c>
-      <c r="D112">
-        <v>346</v>
-      </c>
-      <c r="E112">
-        <v>392</v>
-      </c>
-      <c r="F112" t="s">
-        <v>66</v>
-      </c>
-      <c r="G112">
-        <v>698</v>
-      </c>
-      <c r="H112" s="2">
-        <v>43537</v>
-      </c>
-      <c r="I112">
-        <v>270</v>
-      </c>
       <c r="J112" s="2">
-        <v>43549</v>
+        <v>43564</v>
       </c>
       <c r="K112" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>105768</v>
+        <v>105769</v>
       </c>
       <c r="B113" t="s">
         <v>14</v>
       </c>
       <c r="C113">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D113">
         <v>416</v>
@@ -4813,7 +4865,7 @@
         <v>323</v>
       </c>
       <c r="F113" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G113">
         <v>494</v>
@@ -4828,330 +4880,330 @@
         <v>43564</v>
       </c>
       <c r="K113" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>105769</v>
+        <v>105770</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C114">
-        <v>378</v>
+        <v>820</v>
       </c>
       <c r="D114">
+        <v>671</v>
+      </c>
+      <c r="E114">
+        <v>665</v>
+      </c>
+      <c r="F114" t="s">
+        <v>91</v>
+      </c>
+      <c r="G114">
+        <v>1316</v>
+      </c>
+      <c r="H114" s="2">
+        <v>43537</v>
+      </c>
+      <c r="I114">
+        <v>935</v>
+      </c>
+      <c r="J114" s="2">
+        <v>43538</v>
+      </c>
+      <c r="K114" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>105772</v>
+      </c>
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115">
+        <v>379</v>
+      </c>
+      <c r="D115">
         <v>416</v>
       </c>
-      <c r="E114">
+      <c r="E115">
         <v>323</v>
       </c>
-      <c r="F114" t="s">
-        <v>90</v>
-      </c>
-      <c r="G114">
+      <c r="F115" t="s">
+        <v>92</v>
+      </c>
+      <c r="G115">
         <v>494</v>
       </c>
-      <c r="H114" s="2">
-        <v>43537</v>
-      </c>
-      <c r="I114">
+      <c r="H115" s="2">
+        <v>43537</v>
+      </c>
+      <c r="I115">
         <v>273</v>
       </c>
-      <c r="J114" s="2">
+      <c r="J115" s="2">
         <v>43564</v>
       </c>
-      <c r="K114" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115">
-        <v>105770</v>
-      </c>
-      <c r="B115" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115">
-        <v>820</v>
-      </c>
-      <c r="D115">
-        <v>671</v>
-      </c>
-      <c r="E115">
-        <v>665</v>
-      </c>
-      <c r="F115" t="s">
-        <v>91</v>
-      </c>
-      <c r="G115">
-        <v>1316</v>
-      </c>
-      <c r="H115" s="2">
-        <v>43537</v>
-      </c>
-      <c r="I115">
-        <v>935</v>
-      </c>
-      <c r="J115" s="2">
-        <v>43538</v>
-      </c>
       <c r="K115" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>105772</v>
+        <v>105773</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C116">
-        <v>379</v>
+        <v>816</v>
       </c>
       <c r="D116">
-        <v>416</v>
+        <v>346</v>
       </c>
       <c r="E116">
         <v>323</v>
       </c>
       <c r="F116" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G116">
-        <v>494</v>
+        <v>527</v>
       </c>
       <c r="H116" s="2">
         <v>43537</v>
       </c>
       <c r="I116">
-        <v>273</v>
+        <v>513</v>
       </c>
       <c r="J116" s="2">
-        <v>43564</v>
+        <v>43552</v>
       </c>
       <c r="K116" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>105773</v>
+        <v>105776</v>
       </c>
       <c r="B117" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C117">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="D117">
-        <v>346</v>
+        <v>819</v>
       </c>
       <c r="E117">
         <v>323</v>
       </c>
       <c r="F117" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G117">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="H117" s="2">
         <v>43537</v>
       </c>
       <c r="I117">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="J117" s="2">
-        <v>43552</v>
+        <v>43558</v>
       </c>
       <c r="K117" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>105776</v>
+        <v>105777</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C118">
         <v>823</v>
       </c>
       <c r="D118">
-        <v>819</v>
+        <v>655</v>
       </c>
       <c r="E118">
-        <v>323</v>
+        <v>663</v>
       </c>
       <c r="F118" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="G118">
-        <v>540</v>
+        <v>648</v>
       </c>
       <c r="H118" s="2">
         <v>43537</v>
       </c>
       <c r="I118">
-        <v>502</v>
+        <v>935</v>
       </c>
       <c r="J118" s="2">
-        <v>43558</v>
+        <v>43556</v>
       </c>
       <c r="K118" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>105777</v>
+        <v>105778</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C119">
         <v>823</v>
       </c>
       <c r="D119">
-        <v>655</v>
+        <v>352</v>
       </c>
       <c r="E119">
-        <v>663</v>
+        <v>323</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="G119">
-        <v>648</v>
+        <v>874</v>
       </c>
       <c r="H119" s="2">
         <v>43537</v>
       </c>
       <c r="I119">
-        <v>935</v>
+        <v>856</v>
       </c>
       <c r="J119" s="2">
-        <v>43556</v>
+        <v>43578</v>
       </c>
       <c r="K119" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>105778</v>
+        <v>105779</v>
       </c>
       <c r="B120" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C120">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D120">
-        <v>352</v>
+        <v>822</v>
       </c>
       <c r="E120">
+        <v>690</v>
+      </c>
+      <c r="F120" t="s">
+        <v>96</v>
+      </c>
+      <c r="G120">
+        <v>501</v>
+      </c>
+      <c r="H120" s="2">
+        <v>43537</v>
+      </c>
+      <c r="I120">
+        <v>504</v>
+      </c>
+      <c r="J120" s="2">
+        <v>43544</v>
+      </c>
+      <c r="K120" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>105781</v>
+      </c>
+      <c r="B121" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121">
+        <v>816</v>
+      </c>
+      <c r="D121">
+        <v>673</v>
+      </c>
+      <c r="E121">
+        <v>1097</v>
+      </c>
+      <c r="F121" t="s">
+        <v>62</v>
+      </c>
+      <c r="G121">
+        <v>1231</v>
+      </c>
+      <c r="H121" s="2">
+        <v>43537</v>
+      </c>
+      <c r="I121">
+        <v>458</v>
+      </c>
+      <c r="J121" s="2">
+        <v>43539</v>
+      </c>
+      <c r="K121" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>105782</v>
+      </c>
+      <c r="B122" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122">
+        <v>842</v>
+      </c>
+      <c r="D122">
+        <v>434</v>
+      </c>
+      <c r="E122">
         <v>323</v>
       </c>
-      <c r="F120" t="s">
-        <v>95</v>
-      </c>
-      <c r="G120">
-        <v>874</v>
-      </c>
-      <c r="H120" s="2">
-        <v>43537</v>
-      </c>
-      <c r="I120">
-        <v>856</v>
-      </c>
-      <c r="J120" s="2">
-        <v>43578</v>
-      </c>
-      <c r="K120" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121">
-        <v>105779</v>
-      </c>
-      <c r="B121" t="s">
-        <v>12</v>
-      </c>
-      <c r="C121">
-        <v>819</v>
-      </c>
-      <c r="D121">
-        <v>822</v>
-      </c>
-      <c r="E121">
-        <v>690</v>
-      </c>
-      <c r="F121" t="s">
-        <v>96</v>
-      </c>
-      <c r="G121">
-        <v>501</v>
-      </c>
-      <c r="H121" s="2">
-        <v>43537</v>
-      </c>
-      <c r="I121">
-        <v>504</v>
-      </c>
-      <c r="J121" s="2">
-        <v>43544</v>
-      </c>
-      <c r="K121" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122">
-        <v>105781</v>
-      </c>
-      <c r="B122" t="s">
-        <v>17</v>
-      </c>
-      <c r="C122">
-        <v>816</v>
-      </c>
-      <c r="D122">
-        <v>673</v>
-      </c>
-      <c r="E122">
-        <v>1097</v>
-      </c>
       <c r="F122" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="G122">
-        <v>1231</v>
+        <v>1566</v>
       </c>
       <c r="H122" s="2">
         <v>43537</v>
       </c>
       <c r="I122">
-        <v>458</v>
+        <v>314</v>
       </c>
       <c r="J122" s="2">
-        <v>43539</v>
+        <v>43566</v>
       </c>
       <c r="K122" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>105782</v>
+        <v>105783</v>
       </c>
       <c r="B123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C123">
         <v>842</v>
@@ -5172,106 +5224,106 @@
         <v>43537</v>
       </c>
       <c r="I123">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="J123" s="2">
-        <v>43566</v>
+        <v>43578</v>
       </c>
       <c r="K123" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>105783</v>
+        <v>105785</v>
       </c>
       <c r="B124" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C124">
-        <v>842</v>
+        <v>823</v>
       </c>
       <c r="D124">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="E124">
-        <v>323</v>
+        <v>553</v>
       </c>
       <c r="F124" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="G124">
-        <v>1566</v>
+        <v>704</v>
       </c>
       <c r="H124" s="2">
         <v>43537</v>
       </c>
       <c r="I124">
-        <v>321</v>
+        <v>511</v>
       </c>
       <c r="J124" s="2">
-        <v>43578</v>
+        <v>43556</v>
       </c>
       <c r="K124" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>105785</v>
+        <v>105786</v>
       </c>
       <c r="B125" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C125">
         <v>823</v>
       </c>
       <c r="D125">
-        <v>462</v>
+        <v>338</v>
       </c>
       <c r="E125">
-        <v>553</v>
+        <v>323</v>
       </c>
       <c r="F125" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="G125">
-        <v>704</v>
+        <v>450</v>
       </c>
       <c r="H125" s="2">
         <v>43537</v>
       </c>
       <c r="I125">
-        <v>511</v>
+        <v>270</v>
       </c>
       <c r="J125" s="2">
-        <v>43556</v>
+        <v>43551</v>
       </c>
       <c r="K125" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>105786</v>
+        <v>105787</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C126">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="D126">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="E126">
-        <v>323</v>
+        <v>562</v>
       </c>
       <c r="F126" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G126">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="H126" s="2">
         <v>43537</v>
@@ -5280,155 +5332,155 @@
         <v>270</v>
       </c>
       <c r="J126" s="2">
-        <v>43551</v>
+        <v>43542</v>
       </c>
       <c r="K126" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>105787</v>
+        <v>105788</v>
       </c>
       <c r="B127" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127">
+        <v>842</v>
+      </c>
+      <c r="D127">
+        <v>659</v>
+      </c>
+      <c r="E127">
+        <v>664</v>
+      </c>
+      <c r="F127" t="s">
+        <v>25</v>
+      </c>
+      <c r="G127">
+        <v>1175</v>
+      </c>
+      <c r="H127" s="2">
+        <v>43537</v>
+      </c>
+      <c r="I127">
+        <v>455</v>
+      </c>
+      <c r="J127" s="2">
+        <v>43544</v>
+      </c>
+      <c r="K127" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>105789</v>
+      </c>
+      <c r="B128" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128">
+        <v>820</v>
+      </c>
+      <c r="D128">
+        <v>462</v>
+      </c>
+      <c r="E128">
+        <v>407</v>
+      </c>
+      <c r="F128" t="s">
+        <v>31</v>
+      </c>
+      <c r="G128">
+        <v>383</v>
+      </c>
+      <c r="H128" s="2">
+        <v>43537</v>
+      </c>
+      <c r="I128">
+        <v>513</v>
+      </c>
+      <c r="J128" s="2">
+        <v>43539</v>
+      </c>
+      <c r="K128" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>105790</v>
+      </c>
+      <c r="B129" t="s">
         <v>14</v>
       </c>
-      <c r="C127">
-        <v>815</v>
-      </c>
-      <c r="D127">
-        <v>351</v>
-      </c>
-      <c r="E127">
-        <v>562</v>
-      </c>
-      <c r="F127" t="s">
-        <v>99</v>
-      </c>
-      <c r="G127">
-        <v>700</v>
-      </c>
-      <c r="H127" s="2">
-        <v>43537</v>
-      </c>
-      <c r="I127">
-        <v>270</v>
-      </c>
-      <c r="J127" s="2">
-        <v>43542</v>
-      </c>
-      <c r="K127" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="A128">
-        <v>105788</v>
-      </c>
-      <c r="B128" t="s">
-        <v>18</v>
-      </c>
-      <c r="C128">
-        <v>842</v>
-      </c>
-      <c r="D128">
-        <v>659</v>
-      </c>
-      <c r="E128">
-        <v>664</v>
-      </c>
-      <c r="F128" t="s">
-        <v>25</v>
-      </c>
-      <c r="G128">
-        <v>1175</v>
-      </c>
-      <c r="H128" s="2">
-        <v>43537</v>
-      </c>
-      <c r="I128">
-        <v>455</v>
-      </c>
-      <c r="J128" s="2">
-        <v>43544</v>
-      </c>
-      <c r="K128" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
-      <c r="A129">
-        <v>105789</v>
-      </c>
-      <c r="B129" t="s">
-        <v>16</v>
-      </c>
       <c r="C129">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D129">
-        <v>462</v>
+        <v>353</v>
       </c>
       <c r="E129">
-        <v>407</v>
+        <v>323</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="G129">
-        <v>383</v>
+        <v>698</v>
       </c>
       <c r="H129" s="2">
         <v>43537</v>
       </c>
       <c r="I129">
-        <v>513</v>
+        <v>310</v>
       </c>
       <c r="J129" s="2">
         <v>43539</v>
       </c>
       <c r="K129" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>105790</v>
+        <v>105791</v>
       </c>
       <c r="B130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C130">
-        <v>819</v>
+        <v>842</v>
       </c>
       <c r="D130">
-        <v>353</v>
+        <v>811</v>
       </c>
       <c r="E130">
         <v>323</v>
       </c>
       <c r="F130" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G130">
-        <v>698</v>
+        <v>835</v>
       </c>
       <c r="H130" s="2">
         <v>43537</v>
       </c>
       <c r="I130">
-        <v>310</v>
+        <v>498</v>
       </c>
       <c r="J130" s="2">
-        <v>43539</v>
+        <v>43551</v>
       </c>
       <c r="K130" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>105791</v>
+        <v>105792</v>
       </c>
       <c r="B131" t="s">
         <v>15</v>
@@ -5437,278 +5489,278 @@
         <v>842</v>
       </c>
       <c r="D131">
-        <v>811</v>
+        <v>424</v>
       </c>
       <c r="E131">
         <v>323</v>
       </c>
       <c r="F131" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G131">
-        <v>835</v>
+        <v>555</v>
       </c>
       <c r="H131" s="2">
         <v>43537</v>
       </c>
       <c r="I131">
-        <v>498</v>
+        <v>317</v>
       </c>
       <c r="J131" s="2">
-        <v>43551</v>
+        <v>43545</v>
       </c>
       <c r="K131" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>105792</v>
+        <v>105793</v>
       </c>
       <c r="B132" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C132">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="D132">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E132">
         <v>323</v>
       </c>
       <c r="F132" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G132">
-        <v>555</v>
+        <v>355</v>
       </c>
       <c r="H132" s="2">
         <v>43537</v>
       </c>
       <c r="I132">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J132" s="2">
-        <v>43545</v>
+        <v>43538</v>
       </c>
       <c r="K132" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>105793</v>
+        <v>105794</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C133">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="D133">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E133">
         <v>323</v>
       </c>
       <c r="F133" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G133">
+        <v>383</v>
+      </c>
+      <c r="H133" s="2">
+        <v>43537</v>
+      </c>
+      <c r="I133">
+        <v>514</v>
+      </c>
+      <c r="J133" s="2">
+        <v>43543</v>
+      </c>
+      <c r="K133" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>105795</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134">
+        <v>842</v>
+      </c>
+      <c r="D134">
+        <v>442</v>
+      </c>
+      <c r="E134">
+        <v>460</v>
+      </c>
+      <c r="F134" t="s">
+        <v>105</v>
+      </c>
+      <c r="G134">
         <v>355</v>
       </c>
-      <c r="H133" s="2">
-        <v>43537</v>
-      </c>
-      <c r="I133">
-        <v>318</v>
-      </c>
-      <c r="J133" s="2">
-        <v>43538</v>
-      </c>
-      <c r="K133" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
-      <c r="A134">
-        <v>105794</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="H134" s="2">
+        <v>43537</v>
+      </c>
+      <c r="I134">
+        <v>317</v>
+      </c>
+      <c r="J134" s="2">
+        <v>43539</v>
+      </c>
+      <c r="K134" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>105796</v>
+      </c>
+      <c r="B135" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135">
+        <v>836</v>
+      </c>
+      <c r="D135">
+        <v>461</v>
+      </c>
+      <c r="E135">
+        <v>467</v>
+      </c>
+      <c r="F135" t="s">
+        <v>35</v>
+      </c>
+      <c r="G135">
+        <v>729</v>
+      </c>
+      <c r="H135" s="2">
+        <v>43537</v>
+      </c>
+      <c r="I135">
+        <v>272</v>
+      </c>
+      <c r="J135" s="2">
+        <v>43544</v>
+      </c>
+      <c r="K135" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>105797</v>
+      </c>
+      <c r="B136" t="s">
+        <v>20</v>
+      </c>
+      <c r="C136">
+        <v>842</v>
+      </c>
+      <c r="D136">
+        <v>660</v>
+      </c>
+      <c r="E136">
+        <v>665</v>
+      </c>
+      <c r="F136" t="s">
+        <v>91</v>
+      </c>
+      <c r="G136">
+        <v>1316</v>
+      </c>
+      <c r="H136" s="2">
+        <v>43537</v>
+      </c>
+      <c r="I136">
+        <v>455</v>
+      </c>
+      <c r="J136" s="2">
+        <v>43549</v>
+      </c>
+      <c r="K136" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>105798</v>
+      </c>
+      <c r="B137" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137">
+        <v>1039</v>
+      </c>
+      <c r="D137">
+        <v>440</v>
+      </c>
+      <c r="E137">
+        <v>323</v>
+      </c>
+      <c r="F137" t="s">
+        <v>106</v>
+      </c>
+      <c r="G137">
+        <v>385</v>
+      </c>
+      <c r="H137" s="2">
+        <v>43537</v>
+      </c>
+      <c r="I137">
+        <v>314</v>
+      </c>
+      <c r="J137" s="2">
+        <v>43545</v>
+      </c>
+      <c r="K137" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>105799</v>
+      </c>
+      <c r="B138" t="s">
         <v>14</v>
       </c>
-      <c r="C134">
-        <v>835</v>
-      </c>
-      <c r="D134">
-        <v>426</v>
-      </c>
-      <c r="E134">
-        <v>323</v>
-      </c>
-      <c r="F134" t="s">
-        <v>104</v>
-      </c>
-      <c r="G134">
-        <v>383</v>
-      </c>
-      <c r="H134" s="2">
-        <v>43537</v>
-      </c>
-      <c r="I134">
-        <v>514</v>
-      </c>
-      <c r="J134" s="2">
-        <v>43543</v>
-      </c>
-      <c r="K134" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
-      <c r="A135">
-        <v>105795</v>
-      </c>
-      <c r="B135" t="s">
-        <v>11</v>
-      </c>
-      <c r="C135">
-        <v>842</v>
-      </c>
-      <c r="D135">
-        <v>442</v>
-      </c>
-      <c r="E135">
-        <v>460</v>
-      </c>
-      <c r="F135" t="s">
-        <v>105</v>
-      </c>
-      <c r="G135">
-        <v>355</v>
-      </c>
-      <c r="H135" s="2">
-        <v>43537</v>
-      </c>
-      <c r="I135">
-        <v>317</v>
-      </c>
-      <c r="J135" s="2">
-        <v>43539</v>
-      </c>
-      <c r="K135" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
-      <c r="A136">
-        <v>105796</v>
-      </c>
-      <c r="B136" t="s">
-        <v>16</v>
-      </c>
-      <c r="C136">
-        <v>836</v>
-      </c>
-      <c r="D136">
-        <v>461</v>
-      </c>
-      <c r="E136">
-        <v>467</v>
-      </c>
-      <c r="F136" t="s">
-        <v>35</v>
-      </c>
-      <c r="G136">
-        <v>729</v>
-      </c>
-      <c r="H136" s="2">
-        <v>43537</v>
-      </c>
-      <c r="I136">
+      <c r="C138">
+        <v>823</v>
+      </c>
+      <c r="D138">
+        <v>336</v>
+      </c>
+      <c r="E138">
+        <v>562</v>
+      </c>
+      <c r="F138" t="s">
+        <v>99</v>
+      </c>
+      <c r="G138">
+        <v>516</v>
+      </c>
+      <c r="H138" s="2">
+        <v>43537</v>
+      </c>
+      <c r="I138">
         <v>272</v>
       </c>
-      <c r="J136" s="2">
-        <v>43544</v>
-      </c>
-      <c r="K136" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
-      <c r="A137">
-        <v>105797</v>
-      </c>
-      <c r="B137" t="s">
-        <v>20</v>
-      </c>
-      <c r="C137">
-        <v>842</v>
-      </c>
-      <c r="D137">
-        <v>660</v>
-      </c>
-      <c r="E137">
-        <v>665</v>
-      </c>
-      <c r="F137" t="s">
-        <v>91</v>
-      </c>
-      <c r="G137">
-        <v>1316</v>
-      </c>
-      <c r="H137" s="2">
-        <v>43537</v>
-      </c>
-      <c r="I137">
-        <v>455</v>
-      </c>
-      <c r="J137" s="2">
-        <v>43549</v>
-      </c>
-      <c r="K137" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
-      <c r="A138">
-        <v>105798</v>
-      </c>
-      <c r="B138" t="s">
-        <v>16</v>
-      </c>
-      <c r="C138">
-        <v>1039</v>
-      </c>
-      <c r="D138">
-        <v>440</v>
-      </c>
-      <c r="E138">
-        <v>323</v>
-      </c>
-      <c r="F138" t="s">
-        <v>106</v>
-      </c>
-      <c r="G138">
-        <v>385</v>
-      </c>
-      <c r="H138" s="2">
-        <v>43537</v>
-      </c>
-      <c r="I138">
-        <v>314</v>
-      </c>
       <c r="J138" s="2">
-        <v>43545</v>
+        <v>43588</v>
       </c>
       <c r="K138" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>105799</v>
+        <v>105800</v>
       </c>
       <c r="B139" t="s">
         <v>14</v>
@@ -5717,13 +5769,13 @@
         <v>823</v>
       </c>
       <c r="D139">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="E139">
-        <v>562</v>
+        <v>407</v>
       </c>
       <c r="F139" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="G139">
         <v>516</v>
@@ -5732,47 +5784,12 @@
         <v>43537</v>
       </c>
       <c r="I139">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J139" s="2">
-        <v>43588</v>
+        <v>43591</v>
       </c>
       <c r="K139" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
-      <c r="A140">
-        <v>105800</v>
-      </c>
-      <c r="B140" t="s">
-        <v>14</v>
-      </c>
-      <c r="C140">
-        <v>823</v>
-      </c>
-      <c r="D140">
-        <v>354</v>
-      </c>
-      <c r="E140">
-        <v>407</v>
-      </c>
-      <c r="F140" t="s">
-        <v>31</v>
-      </c>
-      <c r="G140">
-        <v>516</v>
-      </c>
-      <c r="H140" s="2">
-        <v>43537</v>
-      </c>
-      <c r="I140">
-        <v>271</v>
-      </c>
-      <c r="J140" s="2">
-        <v>43591</v>
-      </c>
-      <c r="K140" t="s">
         <v>164</v>
       </c>
     </row>
